--- a/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200517.xlsx
+++ b/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200517.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\beijing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D746A395-8C94-47A9-8D62-29DEF9F45BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10377,7 +10383,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -10572,6 +10578,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -10834,56 +10843,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AF41"/>
+    <sheetView tabSelected="1" topLeftCell="G11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.08984375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.07421875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.23046875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.15234375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.07421875" style="12" customWidth="1"/>
     <col min="6" max="6" width="7" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.61328125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="9.15234375" style="12" customWidth="1"/>
     <col min="9" max="9" width="11" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="14" customWidth="1"/>
-    <col min="13" max="15" width="12.453125" style="15" customWidth="1"/>
-    <col min="16" max="22" width="12.453125" style="14" customWidth="1"/>
-    <col min="23" max="23" width="8.7265625" style="12" customWidth="1"/>
-    <col min="24" max="24" width="11.90625" style="12" customWidth="1"/>
-    <col min="25" max="25" width="11.26953125" style="12" customWidth="1"/>
-    <col min="26" max="26" width="14.6328125" style="13" customWidth="1"/>
-    <col min="27" max="27" width="67.81640625" style="14" customWidth="1"/>
-    <col min="28" max="28" width="65.08984375" style="12" customWidth="1"/>
-    <col min="29" max="29" width="16.1796875" style="12" customWidth="1"/>
-    <col min="30" max="30" width="16.08984375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.53515625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="11.23046875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.4609375" style="14" customWidth="1"/>
+    <col min="13" max="15" width="12.4609375" style="15" customWidth="1"/>
+    <col min="16" max="22" width="12.4609375" style="14" customWidth="1"/>
+    <col min="23" max="23" width="8.69140625" style="12" customWidth="1"/>
+    <col min="24" max="24" width="11.921875" style="12" customWidth="1"/>
+    <col min="25" max="25" width="11.23046875" style="12" customWidth="1"/>
+    <col min="26" max="26" width="14.61328125" style="13" customWidth="1"/>
+    <col min="27" max="27" width="67.84375" style="14" customWidth="1"/>
+    <col min="28" max="28" width="65.07421875" style="12" customWidth="1"/>
+    <col min="29" max="29" width="16.15234375" style="12" customWidth="1"/>
+    <col min="30" max="30" width="16.07421875" style="12" customWidth="1"/>
     <col min="31" max="31" width="20" style="12" customWidth="1"/>
-    <col min="32" max="32" width="15.1796875" style="12" customWidth="1"/>
-    <col min="33" max="33" width="12.81640625" style="12" customWidth="1"/>
-    <col min="34" max="34" width="19.08984375" style="12" customWidth="1"/>
-    <col min="35" max="35" width="25.453125" style="12" customWidth="1"/>
-    <col min="36" max="36" width="31.90625" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.90625" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" style="12" customWidth="1"/>
+    <col min="32" max="32" width="15.15234375" style="12" customWidth="1"/>
+    <col min="33" max="33" width="12.84375" style="12" customWidth="1"/>
+    <col min="34" max="34" width="19.07421875" style="12" customWidth="1"/>
+    <col min="35" max="35" width="25.4609375" style="12" customWidth="1"/>
+    <col min="36" max="36" width="31.921875" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.921875" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.4609375" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="8.90625" style="12" customWidth="1"/>
-    <col min="41" max="42" width="31.90625" style="12" customWidth="1"/>
-    <col min="43" max="43" width="21.90625" style="12" customWidth="1"/>
-    <col min="44" max="44" width="24.453125" style="12" customWidth="1"/>
+    <col min="40" max="40" width="8.921875" style="12" customWidth="1"/>
+    <col min="41" max="42" width="31.921875" style="12" customWidth="1"/>
+    <col min="43" max="43" width="21.921875" style="12" customWidth="1"/>
+    <col min="44" max="44" width="24.4609375" style="12" customWidth="1"/>
     <col min="45" max="45" width="31" style="12" customWidth="1"/>
-    <col min="46" max="46" width="5.08984375" style="12" customWidth="1"/>
-    <col min="47" max="16384" width="10.90625" style="12"/>
+    <col min="46" max="46" width="5.07421875" style="12" customWidth="1"/>
+    <col min="47" max="16384" width="10.921875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="11" customFormat="1" ht="16.2">
+    <row r="1" spans="1:46" s="11" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -11023,7 +11032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="16.2">
+    <row r="2" spans="1:46">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -11092,7 +11101,7 @@
       <c r="AO2" s="13"/>
       <c r="AP2" s="13"/>
     </row>
-    <row r="3" spans="1:46" ht="16.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -11156,7 +11165,7 @@
       </c>
       <c r="AJ3" s="13"/>
     </row>
-    <row r="4" spans="1:46" ht="16.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -11217,7 +11226,7 @@
       </c>
       <c r="AJ4" s="13"/>
     </row>
-    <row r="5" spans="1:46" ht="16.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -11278,7 +11287,7 @@
       </c>
       <c r="AJ5" s="13"/>
     </row>
-    <row r="6" spans="1:46" ht="16.2">
+    <row r="6" spans="1:46">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -11339,7 +11348,7 @@
       </c>
       <c r="AJ6" s="13"/>
     </row>
-    <row r="7" spans="1:46" ht="16.2">
+    <row r="7" spans="1:46">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -11400,7 +11409,7 @@
       </c>
       <c r="AJ7" s="13"/>
     </row>
-    <row r="8" spans="1:46" ht="16.2">
+    <row r="8" spans="1:46">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -11461,7 +11470,7 @@
       </c>
       <c r="AJ8" s="13"/>
     </row>
-    <row r="9" spans="1:46" ht="16.2">
+    <row r="9" spans="1:46">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -11522,7 +11531,7 @@
       </c>
       <c r="AJ9" s="13"/>
     </row>
-    <row r="10" spans="1:46" ht="16.2">
+    <row r="10" spans="1:46">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -11583,7 +11592,7 @@
       </c>
       <c r="AJ10" s="13"/>
     </row>
-    <row r="11" spans="1:46" ht="16.2">
+    <row r="11" spans="1:46">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -11644,7 +11653,7 @@
       </c>
       <c r="AJ11" s="13"/>
     </row>
-    <row r="12" spans="1:46" ht="16.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -11705,7 +11714,7 @@
       </c>
       <c r="AJ12" s="13"/>
     </row>
-    <row r="13" spans="1:46" ht="16.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -11766,7 +11775,7 @@
       </c>
       <c r="AJ13" s="13"/>
     </row>
-    <row r="14" spans="1:46" ht="16.2">
+    <row r="14" spans="1:46">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -11827,7 +11836,7 @@
       </c>
       <c r="AJ14" s="13"/>
     </row>
-    <row r="15" spans="1:46" ht="16.2">
+    <row r="15" spans="1:46">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -11888,7 +11897,7 @@
       </c>
       <c r="AJ15" s="13"/>
     </row>
-    <row r="16" spans="1:46" ht="16.2">
+    <row r="16" spans="1:46">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -11947,7 +11956,7 @@
       </c>
       <c r="AJ16" s="13"/>
     </row>
-    <row r="17" spans="1:36" ht="16.2">
+    <row r="17" spans="1:36">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -12008,7 +12017,7 @@
       </c>
       <c r="AJ17" s="13"/>
     </row>
-    <row r="18" spans="1:36" ht="16.2">
+    <row r="18" spans="1:36">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -12069,7 +12078,7 @@
       </c>
       <c r="AJ18" s="13"/>
     </row>
-    <row r="19" spans="1:36" ht="16.2">
+    <row r="19" spans="1:36">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -12130,7 +12139,7 @@
       </c>
       <c r="AJ19" s="13"/>
     </row>
-    <row r="20" spans="1:36" ht="16.2">
+    <row r="20" spans="1:36">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -12193,7 +12202,7 @@
       </c>
       <c r="AJ20" s="13"/>
     </row>
-    <row r="21" spans="1:36" ht="16.2">
+    <row r="21" spans="1:36">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -12256,7 +12265,7 @@
       </c>
       <c r="AJ21" s="13"/>
     </row>
-    <row r="22" spans="1:36" ht="16.2">
+    <row r="22" spans="1:36">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -12319,7 +12328,7 @@
       </c>
       <c r="AJ22" s="13"/>
     </row>
-    <row r="23" spans="1:36" ht="16.2">
+    <row r="23" spans="1:36">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -12382,7 +12391,7 @@
       </c>
       <c r="AJ23" s="13"/>
     </row>
-    <row r="24" spans="1:36" ht="16.2">
+    <row r="24" spans="1:36">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -12445,7 +12454,7 @@
       </c>
       <c r="AJ24" s="13"/>
     </row>
-    <row r="25" spans="1:36" ht="16.2">
+    <row r="25" spans="1:36">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -12508,7 +12517,7 @@
       </c>
       <c r="AJ25" s="13"/>
     </row>
-    <row r="26" spans="1:36" ht="16.2">
+    <row r="26" spans="1:36">
       <c r="A26" s="20">
         <v>25</v>
       </c>
@@ -12571,7 +12580,7 @@
       </c>
       <c r="AJ26" s="13"/>
     </row>
-    <row r="27" spans="1:36" ht="16.2">
+    <row r="27" spans="1:36">
       <c r="A27" s="20">
         <v>26</v>
       </c>
@@ -12634,7 +12643,7 @@
       </c>
       <c r="AJ27" s="13"/>
     </row>
-    <row r="28" spans="1:36" ht="16.2">
+    <row r="28" spans="1:36">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -12697,7 +12706,7 @@
       </c>
       <c r="AJ28" s="13"/>
     </row>
-    <row r="29" spans="1:36" ht="16.2">
+    <row r="29" spans="1:36">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -12760,7 +12769,7 @@
       </c>
       <c r="AJ29" s="13"/>
     </row>
-    <row r="30" spans="1:36" ht="16.2">
+    <row r="30" spans="1:36">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -12823,7 +12832,7 @@
       </c>
       <c r="AJ30" s="13"/>
     </row>
-    <row r="31" spans="1:36" ht="16.2">
+    <row r="31" spans="1:36">
       <c r="A31" s="20">
         <v>30</v>
       </c>
@@ -12886,7 +12895,7 @@
       </c>
       <c r="AJ31" s="13"/>
     </row>
-    <row r="32" spans="1:36" ht="16.2">
+    <row r="32" spans="1:36">
       <c r="A32" s="20">
         <v>31</v>
       </c>
@@ -12949,7 +12958,7 @@
       </c>
       <c r="AJ32" s="13"/>
     </row>
-    <row r="33" spans="1:36" ht="16.2">
+    <row r="33" spans="1:36">
       <c r="A33" s="20">
         <v>31</v>
       </c>
@@ -13012,7 +13021,7 @@
       </c>
       <c r="AJ33" s="13"/>
     </row>
-    <row r="34" spans="1:36" ht="16.2">
+    <row r="34" spans="1:36">
       <c r="A34" s="20">
         <v>31</v>
       </c>
@@ -13075,7 +13084,7 @@
       </c>
       <c r="AJ34" s="13"/>
     </row>
-    <row r="35" spans="1:36" ht="16.2">
+    <row r="35" spans="1:36">
       <c r="A35" s="20">
         <v>31</v>
       </c>
@@ -13138,7 +13147,7 @@
       </c>
       <c r="AJ35" s="13"/>
     </row>
-    <row r="36" spans="1:36" ht="16.2">
+    <row r="36" spans="1:36">
       <c r="A36" s="20">
         <v>31</v>
       </c>
@@ -13201,7 +13210,7 @@
       </c>
       <c r="AJ36" s="13"/>
     </row>
-    <row r="37" spans="1:36" ht="16.2">
+    <row r="37" spans="1:36">
       <c r="A37" s="20">
         <v>31</v>
       </c>
@@ -13264,7 +13273,7 @@
       </c>
       <c r="AJ37" s="13"/>
     </row>
-    <row r="38" spans="1:36" ht="16.2">
+    <row r="38" spans="1:36">
       <c r="A38" s="20">
         <v>32</v>
       </c>
@@ -13327,7 +13336,7 @@
       </c>
       <c r="AJ38" s="13"/>
     </row>
-    <row r="39" spans="1:36" ht="16.2">
+    <row r="39" spans="1:36">
       <c r="A39" s="20">
         <v>32</v>
       </c>
@@ -13390,7 +13399,7 @@
       </c>
       <c r="AJ39" s="13"/>
     </row>
-    <row r="40" spans="1:36" ht="16.2">
+    <row r="40" spans="1:36">
       <c r="A40" s="20">
         <v>33</v>
       </c>
@@ -13451,7 +13460,7 @@
       </c>
       <c r="AJ40" s="13"/>
     </row>
-    <row r="41" spans="1:36" ht="16.2">
+    <row r="41" spans="1:36">
       <c r="A41" s="20">
         <v>34</v>
       </c>
@@ -13518,7 +13527,7 @@
       </c>
       <c r="AJ41" s="13"/>
     </row>
-    <row r="42" spans="1:36" ht="16.2">
+    <row r="42" spans="1:36">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="19"/>
@@ -13550,25 +13559,25 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B49 B54:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B49 B54:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H49 H54:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H49 H54:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT($G49)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI49 AI2:AI42 AI54:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI49 AI2:AI42 AI54:AI1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G49 G54:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G49 G54:G1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT($F49)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG49 AK49 AQ49 AG2:AG42 AG54:AG1048576 AK2:AK42 AK54:AK1048576 AQ2:AQ42 AQ54:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG49 AK49 AQ49 AG2:AG42 AG54:AG1048576 AK2:AK42 AK54:AK1048576 AQ2:AQ42 AQ54:AQ1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:L49 P49:X49 I54:L1048576 P54:X1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:L49 P49:X49 I54:L1048576 P54:X1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM49 AS49 AM2:AM42 AM54:AM1048576 AS2:AS42 AS54:AS1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM49 AS49 AM2:AM42 AM54:AM1048576 AS2:AS42 AS54:AS1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13577,7 +13586,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -13590,7 +13599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -13598,10 +13607,10 @@
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
